--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16066.06164136867</v>
+        <v>-16066.06164136869</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26334,7 @@
         <v>27223.49406355011</v>
       </c>
       <c r="I2" t="n">
-        <v>27223.49406355012</v>
+        <v>27223.4940635501</v>
       </c>
       <c r="J2" t="n">
         <v>27223.49406355011</v>
@@ -26341,13 +26343,13 @@
         <v>27223.49406355011</v>
       </c>
       <c r="L2" t="n">
-        <v>27223.49406355011</v>
+        <v>27223.4940635501</v>
       </c>
       <c r="M2" t="n">
         <v>27223.4940635501</v>
       </c>
       <c r="N2" t="n">
-        <v>27223.49406355011</v>
+        <v>27223.4940635501</v>
       </c>
       <c r="O2" t="n">
         <v>27223.49406355011</v>
@@ -26528,19 +26530,19 @@
         <v>-24553.10197881663</v>
       </c>
       <c r="E6" t="n">
-        <v>9074.498021183372</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="F6" t="n">
         <v>9074.498021183368</v>
       </c>
       <c r="G6" t="n">
-        <v>9074.498021183372</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="H6" t="n">
-        <v>9074.498021183368</v>
+        <v>9074.498021183364</v>
       </c>
       <c r="I6" t="n">
-        <v>9074.498021183375</v>
+        <v>9074.498021183361</v>
       </c>
       <c r="J6" t="n">
         <v>9074.498021183368</v>
@@ -26549,16 +26551,16 @@
         <v>9074.498021183368</v>
       </c>
       <c r="L6" t="n">
-        <v>9074.498021183364</v>
+        <v>9074.498021183361</v>
       </c>
       <c r="M6" t="n">
-        <v>9074.498021183364</v>
+        <v>9074.498021183361</v>
       </c>
       <c r="N6" t="n">
-        <v>9074.498021183364</v>
+        <v>9074.498021183357</v>
       </c>
       <c r="O6" t="n">
-        <v>9074.498021183372</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="P6" t="n">
         <v>9074.498021183368</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16066.06164136869</v>
+        <v>-138666.0822199766</v>
       </c>
     </row>
     <row r="7">
@@ -26334,7 +26334,7 @@
         <v>27223.49406355011</v>
       </c>
       <c r="I2" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="J2" t="n">
         <v>27223.49406355011</v>
@@ -26343,13 +26343,13 @@
         <v>27223.49406355011</v>
       </c>
       <c r="L2" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="M2" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="N2" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="O2" t="n">
         <v>27223.49406355011</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="C6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="D6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="E6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="F6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="G6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579492</v>
       </c>
       <c r="H6" t="n">
-        <v>9074.498021183364</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="I6" t="n">
-        <v>9074.498021183361</v>
+        <v>-5578.854480579492</v>
       </c>
       <c r="J6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="K6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579492</v>
       </c>
       <c r="L6" t="n">
-        <v>9074.498021183361</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="M6" t="n">
-        <v>9074.498021183361</v>
+        <v>-5578.854480579492</v>
       </c>
       <c r="N6" t="n">
-        <v>9074.498021183357</v>
+        <v>-5578.854480579488</v>
       </c>
       <c r="O6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579492</v>
       </c>
       <c r="P6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579488</v>
       </c>
     </row>
   </sheetData>
